--- a/build/ensino/2022/08/segundo-semestre-de-2022/mes-9-dia-11-ava-matc65.xlsx
+++ b/build/ensino/2022/08/segundo-semestre-de-2022/mes-9-dia-11-ava-matc65.xlsx
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -461,16 +461,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -525,16 +525,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -627,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>220215677</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -702,10 +702,10 @@
         <v>220117484</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -714,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -734,31 +734,31 @@
         <v>219118723</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -766,7 +766,7 @@
         <v>220216104</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -781,16 +781,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -798,13 +798,13 @@
         <v>220120072</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -830,13 +830,13 @@
         <v>221118106</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,13 +900,13 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -929,16 +929,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1043,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1089,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1156,25 +1156,25 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1322,19 +1322,19 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1374,31 +1374,31 @@
         <v>222215880</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1508,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1668,13 +1668,13 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1694,7 +1694,7 @@
         <v>216219204</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1715,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1726,31 +1726,31 @@
         <v>220217146</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1764,25 +1764,25 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1875,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1936,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
